--- a/biology/Biochimie/Iodothyronine/Iodothyronine.xlsx
+++ b/biology/Biochimie/Iodothyronine/Iodothyronine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une iodothyronine est un dérivé iodé de la thyronine, un acide aminé résultant de la condensation de deux molécules de tyrosine avec élimination d'une molécule d'alanine. Les hormones thyroïdiennes sont deux idothyronines :
 la thyroxine, ou T4 ;
